--- a/assets/excel/resultados_antenas.xlsx
+++ b/assets/excel/resultados_antenas.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vivo (697341712)</t>
+          <t>VIVO (442013981)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.20 km</t>
+          <t>0.23 km</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vivo (684711680)</t>
+          <t>VIVO (697341712)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.30 km</t>
+          <t>0.29 km</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vivo (684610264)</t>
+          <t>VIVO (684610264)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tim (684704862)</t>
+          <t>TIM (684704862)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vivo (1004994203)</t>
+          <t>VIVO (1004994203)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -546,32 +546,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vivo (690361564)</t>
+          <t>VIVO (690361564)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.71 km</t>
+          <t>1.78 km</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tim (1012312701)</t>
+          <t>VIVO (1015774048)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>3.51 km</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TIM (1012312701)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>3.62 km</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vivo (443810630)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5.25 km</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vivo (641266073)</t>
+          <t>VIVO (641266073)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tim (1001668275)</t>
+          <t>TIM (1001668275)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>VIVO (1015928061)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.22 km</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Claro (1012409250)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>0.22 km</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vivo (1007969331)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.24 km</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tim (1002530145)</t>
+          <t>TIM (1002530145)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Vivo (1013036562)</t>
+          <t>VIVO (1013036562)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vivo (1014229453)</t>
+          <t>VIVO (1014229453)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vivo (1000797756)</t>
+          <t>VIVO (1000797756)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tim (431355550)</t>
+          <t>TIM (431355550)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tim (1004061649)</t>
+          <t>TIM (1004061649)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tim (637136454)</t>
+          <t>TIM (637136454)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.22 km</t>
+          <t>1.21 km</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vivo (684808307)</t>
+          <t>VIVO (684808307)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tim (692738797)</t>
+          <t>TIM (692738797)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tim (1003002207)</t>
+          <t>TIM (1003002207)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tim (1002557620)</t>
+          <t>TIM (1002557620)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tim (1002560036)</t>
+          <t>TIM (1015706107)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.36 km</t>
+          <t>9.06 km</t>
         </is>
       </c>
     </row>
@@ -861,17 +861,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Vivo (1008990334)</t>
+          <t>VIVO (1000597196)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.62 km</t>
+          <t>2.30 km</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Claro (684640910)</t>
+          <t>TIM (695482432)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tim (695482432)</t>
+          <t>VIVO (1008990334)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.84 km</t>
+          <t>2.85 km</t>
         </is>
       </c>
     </row>
@@ -901,27 +901,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.17 km</t>
+          <t>0.14 km</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Vivo (1000183340)</t>
+          <t>VIVO (399915524)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.20 km</t>
+          <t>1.22 km</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vivo (399915524)</t>
+          <t>TIM (684285614)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.22 km</t>
+          <t>1.23 km</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tim (1014285124)</t>
+          <t>TIM (1014285124)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -941,22 +941,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Vivo (1003484309)</t>
+          <t>Claro (1016031707)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.46 km</t>
+          <t>0.20 km</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vivo (1004987584)</t>
+          <t>VIVO (696271958)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.46 km</t>
+          <t>0.25 km</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tim (665723482)</t>
+          <t>TIM (665723482)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Vivo (1014348223)</t>
+          <t>VIVO (1014348223)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vivo (623369524)</t>
+          <t>VIVO (623369524)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tim (1005550473)</t>
+          <t>TIM (1005550473)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vivo (641266073)</t>
+          <t>VIVO (641266073)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tim (1011502094)</t>
+          <t>TIM (1011502094)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tim (1006170100)</t>
+          <t>TIM (1006170100)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vivo (683100076)</t>
+          <t>VIVO (684688239)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19.67 km</t>
+          <t>19.44 km</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vivo (1012303125)</t>
+          <t>VIVO (1012303125)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tim (690633238)</t>
+          <t>TIM (690633238)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Vivo (1007970119)</t>
+          <t>VIVO (1007970119)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tim (1001786499)</t>
+          <t>TIM (1001786499)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Vivo (1003484791)</t>
+          <t>VIVO (1003484791)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Vivo (1004994149)</t>
+          <t>VIVO (1004994149)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tim (431362645)</t>
+          <t>TIM (431362645)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tim (1005669985)</t>
+          <t>TIM (1005669985)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vivo (641274181)</t>
+          <t>VIVO (641274181)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tim (684919940)</t>
+          <t>TIM (684919940)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Vivo (691996202)</t>
+          <t>Claro (695951254)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.75 km</t>
+          <t>2.69 km</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Claro (695951254)</t>
+          <t>VIVO (691996202)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vivo (1012018447)</t>
+          <t>VIVO (1012018447)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vivo (1003949050)</t>
+          <t>VIVO (1003949050)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tim (1013215211)</t>
+          <t>TIM (1013215211)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1296,12 +1296,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.16 km</t>
+          <t>1.17 km</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vivo (688885080)</t>
+          <t>VIVO (688885080)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Vivo (1002433239)</t>
+          <t>VIVO (1002433239)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tim (431355959)</t>
+          <t>TIM (431355959)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.15 km</t>
+          <t>0.13 km</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1371,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vivo (441049370)</t>
+          <t>VIVO (441049370)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.48 km</t>
+          <t>1.51 km</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tim (1012700191)</t>
+          <t>TIM (1015693102)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>3.49 km</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TIM (1012700191)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>4.85 km</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Tim (1001629202)</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>7.91 km</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tim (1002501862)</t>
+          <t>TIM (1015692947)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11.90 km</t>
+          <t>5.79 km</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Vivo (683415905)</t>
+          <t>VIVO (683415905)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tim (682930857)</t>
+          <t>TIM (682930857)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tim (699189632)</t>
+          <t>TIM (699189632)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1476,12 +1476,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vivo (1005416599)</t>
+          <t>TIM (1016098950)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.37 km</t>
+          <t>0.13 km</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vivo (1002432305)</t>
+          <t>VIVO (1002432305)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Vivo (1001330746)</t>
+          <t>VIVO (1001330746)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tim (1001948138)</t>
+          <t>TIM (1001948138)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Vivo (687537088)</t>
+          <t>VIVO (687537088)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Vivo (1004987452)</t>
+          <t>VIVO (1004987452)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tim (695481630)</t>
+          <t>TIM (695481630)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tim (431353336)</t>
+          <t>TIM (431353336)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Vivo (443810591)</t>
+          <t>VIVO (443810591)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tim (697099563)</t>
+          <t>Claro (1016174699)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.71 km</t>
+          <t>1.14 km</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Vivo (1007756435)</t>
+          <t>VIVO (1007756435)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tim (684644843)</t>
+          <t>TIM (684644843)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vivo (688118127)</t>
+          <t>VIVO (688118127)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tim (1007817477)</t>
+          <t>TIM (1007817477)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vivo (1014515960)</t>
+          <t>VIVO (1014515960)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tim (431360502)</t>
+          <t>TIM (431360502)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1701,22 +1701,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tim (1000117623)</t>
+          <t>TIM (1000117623)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.44 km</t>
+          <t>1.43 km</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tim (692807284)</t>
+          <t>TIM (692807284)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.93 km</t>
+          <t>7.98 km</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tim (690623038)</t>
+          <t>TIM (690623038)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tim (1015143870)</t>
+          <t>TIM (1015143870)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Vivo (691116881)</t>
+          <t>VIVO (691116881)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Vivo (1014462301)</t>
+          <t>VIVO (1014462301)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1806,32 +1806,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Vivo (691339414)</t>
+          <t>Claro (1015898936)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>5.16 km</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TIM (1015631034)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>5.21 km</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Tim (431367230)</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TIM (431367230)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>5.22 km</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Claro (684996138)</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>5.30 km</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tim (431354642)</t>
+          <t>TIM (431354642)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vivo (1013277004)</t>
+          <t>VIVO (1013277004)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Vivo (667987967)</t>
+          <t>VIVO (667987967)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Vivo (1013064671)</t>
+          <t>VIVO (1013064671)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1896,12 +1896,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tim (689725108)</t>
+          <t>Claro (685020703)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.77 km</t>
+          <t>1.70 km</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Vivo (641274181)</t>
+          <t>VIVO (641274181)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tim (431362645)</t>
+          <t>TIM (431362645)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tim (1002350724)</t>
+          <t>TIM (1002350724)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1956,22 +1956,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tim (699954614)</t>
+          <t>TIM (1015692840)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11.74 km</t>
+          <t>7.73 km</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vivo (686810686)</t>
+          <t>Claro (1016031715)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>13.28 km</t>
+          <t>9.44 km</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tim (1001846718)</t>
+          <t>TIM (1001846718)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1991,22 +1991,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Vivo (1014837607)</t>
+          <t>VIVO (692277382)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>0.59 km</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>VIVO (1014837607)</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>0.74 km</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Claro (1005036621)</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>1.04 km</t>
         </is>
       </c>
     </row>
@@ -2016,12 +2016,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tim (689806361)</t>
+          <t>TIM (689806361)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.10 km</t>
+          <t>4.11 km</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2036,12 +2036,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tim (682820920)</t>
+          <t>VIVO (1015588600)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>6.04 km</t>
+          <t>4.61 km</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tim (1006868078)</t>
+          <t>TIM (1006868078)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Vivo (691116440)</t>
+          <t>VIVO (691116440)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Vivo (687477492)</t>
+          <t>VIVO (687477492)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tim (692819789)</t>
+          <t>TIM (692819789)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tim (689806361)</t>
+          <t>TIM (689806361)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.08 km</t>
+          <t>4.09 km</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tim (682820920)</t>
+          <t>VIVO (1015588600)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>6.06 km</t>
+          <t>4.58 km</t>
         </is>
       </c>
     </row>
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tim (1003878528)</t>
+          <t>Claro (1003522111)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.04 km</t>
+          <t>0.05 km</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Claro (1003522111)</t>
+          <t>TIM (1003878528)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vivo (641265794)</t>
+          <t>Claro (1004463569)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.75 km</t>
+          <t>0.73 km</t>
         </is>
       </c>
     </row>
@@ -2191,32 +2191,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Vivo (1013189067)</t>
+          <t>TIM (1015732132)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>7.66 km</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>VIVO (1013189067)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>8.04 km</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Claro (700016686)</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>8.06 km</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Tim (431357595)</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>8.07 km</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Vivo (617724610)</t>
+          <t>VIVO (617724610)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tim (687493650)</t>
+          <t>TIM (687493650)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Vivo (683416316)</t>
+          <t>VIVO (683416316)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tim (535862628)</t>
+          <t>TIM (535862628)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tim (699818419)</t>
+          <t>TIM (699818419)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Vivo (623369001)</t>
+          <t>VIVO (623369001)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tim (441990134)</t>
+          <t>TIM (441990134)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tim (1010245357)</t>
+          <t>TIM (1010245357)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vivo (1013036384)</t>
+          <t>VIVO (695248910)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.47 km</t>
+          <t>2.27 km</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Vivo (1014348193)</t>
+          <t>VIVO (1014348193)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vivo (1007969528)</t>
+          <t>VIVO (1007969528)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">

--- a/assets/excel/resultados_antenas.xlsx
+++ b/assets/excel/resultados_antenas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,1926 +472,4236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40632202</v>
+        <v>84029730</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VIVO (442013981)</t>
+          <t>VIVO (1003839263)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.23 km</t>
+          <t>1.80 km</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Claro (683777696)</t>
+          <t>TIM (1014567537)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.29 km</t>
+          <t>2.88 km</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VIVO (697341712)</t>
+          <t>TIM (1008007479)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.29 km</t>
+          <t>3.38 km</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41243692</v>
+        <v>107988615</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VIVO (684610264)</t>
+          <t>Claro (690748701)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.50 km</t>
+          <t>3.44 km</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TIM (684704862)</t>
+          <t>VIVO (688445586)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.50 km</t>
+          <t>3.64 km</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VIVO (1004994203)</t>
+          <t>VIVO (689403070)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.50 km</t>
+          <t>3.64 km</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104023953</v>
+        <v>18531571</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VIVO (690361564)</t>
+          <t>VIVO (1005638834)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.78 km</t>
+          <t>2.57 km</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VIVO (1015774048)</t>
+          <t>TIM (1007202081)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.51 km</t>
+          <t>2.57 km</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TIM (1012312701)</t>
+          <t>VIVO (1013189091)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.62 km</t>
+          <t>2.58 km</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26773805</v>
+        <v>97011878</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Claro (1004463470)</t>
+          <t>TIM (695476246)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.11 km</t>
+          <t>1.26 km</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VIVO (641266073)</t>
+          <t>VIVO (688445543)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.47 km</t>
+          <t>1.27 km</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Claro (683895907)</t>
+          <t>VIVO (691552452)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.75 km</t>
+          <t>1.27 km</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79199682</v>
+        <v>106187740</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TIM (1001668275)</t>
+          <t>Claro (690568525)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.21 km</t>
+          <t>9.04 km</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VIVO (1015928061)</t>
+          <t>TIM (695330373)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.22 km</t>
+          <t>9.05 km</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Claro (1012409250)</t>
+          <t>VIVO (689403089)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.22 km</t>
+          <t>9.08 km</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42972442</v>
+        <v>108174344</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TIM (1002530145)</t>
+          <t>Claro (686174070)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.14 km</t>
+          <t>10.49 km</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VIVO (1013036562)</t>
+          <t>TIM (441990177)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.15 km</t>
+          <t>10.50 km</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VIVO (1014229453)</t>
+          <t>VIVO (699576440)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.16 km</t>
+          <t>10.72 km</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30380707</v>
+        <v>111652006</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Claro (685014371)</t>
+          <t>TIM (1002571577)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.37 km</t>
+          <t>4.67 km</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VIVO (1000797756)</t>
+          <t>TIM (1015706107)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.37 km</t>
+          <t>13.97 km</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TIM (431355550)</t>
+          <t>TIM (1002557620)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.53 km</t>
+          <t>14.64 km</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>76723607</v>
+        <v>101357249</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Claro (683787233)</t>
+          <t>VIVO (1005545909)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.64 km</t>
+          <t>1.78 km</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TIM (1004061649)</t>
+          <t>TIM (692822097)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.66 km</t>
+          <t>1.78 km</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Claro (1005724137)</t>
+          <t>Claro (1005036702)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.84 km</t>
+          <t>1.79 km</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43408400</v>
+        <v>83262229</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Claro (689735839)</t>
+          <t>Claro (700053700)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.20 km</t>
+          <t>0.24 km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TIM (637136454)</t>
+          <t>VIVO (1009797619)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.21 km</t>
+          <t>0.47 km</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VIVO (684808307)</t>
+          <t>TIM (699914000)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.23 km</t>
+          <t>0.48 km</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>87033569</v>
+        <v>87151979</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Claro (1006631930)</t>
+          <t>Claro (1007414585)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.23 km</t>
+          <t>0.59 km</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TIM (692738797)</t>
+          <t>TIM (1009949907)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.07 km</t>
+          <t>0.59 km</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Claro (687605598)</t>
+          <t>VIVO (1013036430)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.10 km</t>
+          <t>0.59 km</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>63072521</v>
+        <v>102124922</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TIM (1003002207)</t>
+          <t>VIVO (442833016)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.21 km</t>
+          <t>0.36 km</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TIM (1002557620)</t>
+          <t>VIVO (684775581)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.81 km</t>
+          <t>0.36 km</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TIM (1015706107)</t>
+          <t>VIVO (1014291914)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9.06 km</t>
+          <t>0.72 km</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>105278548</v>
+        <v>92649483</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VIVO (1000597196)</t>
+          <t>TIM (695472682)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.30 km</t>
+          <t>7.12 km</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TIM (695482432)</t>
+          <t>Claro (1012943680)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.84 km</t>
+          <t>7.13 km</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VIVO (1008990334)</t>
+          <t>VIVO (1005877154)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.85 km</t>
+          <t>7.14 km</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>56104650</v>
+        <v>97448273</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Claro (1000168732)</t>
+          <t>TIM (1011502094)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.14 km</t>
+          <t>16.95 km</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VIVO (399915524)</t>
+          <t>TIM (1006170100)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.22 km</t>
+          <t>18.83 km</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TIM (684285614)</t>
+          <t>VIVO (684688239)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.23 km</t>
+          <t>19.44 km</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>88588084</v>
+        <v>111011230</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TIM (1014285124)</t>
+          <t>VIVO (684808307)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.20 km</t>
+          <t>1.37 km</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Claro (1016031707)</t>
+          <t>TIM (637136454)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.20 km</t>
+          <t>1.38 km</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VIVO (696271958)</t>
+          <t>Claro (689735839)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.25 km</t>
+          <t>1.39 km</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>103666508</v>
+        <v>107862271</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TIM (665723482)</t>
+          <t>VIVO (613595050)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.08 km</t>
+          <t>0.70 km</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VIVO (1014348223)</t>
+          <t>TIM (687631980)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.08 km</t>
+          <t>0.77 km</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VIVO (623369524)</t>
+          <t>VIVO (1005005742)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4.59 km</t>
+          <t>0.78 km</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>91986621</v>
+        <v>96937505</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TIM (1005550473)</t>
+          <t>Claro (693622644)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.46 km</t>
+          <t>10.77 km</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Claro (1004463470)</t>
+          <t>TIM (682691542)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.73 km</t>
+          <t>10.83 km</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VIVO (641266073)</t>
+          <t>VIVO (684684896)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.00 km</t>
+          <t>10.83 km</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>97448273</v>
+        <v>95485023</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TIM (1011502094)</t>
+          <t>Claro (1005966882)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16.95 km</t>
+          <t>2.04 km</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TIM (1006170100)</t>
+          <t>Claro (1007852744)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18.83 km</t>
+          <t>3.10 km</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VIVO (684688239)</t>
+          <t>Claro (685016781)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19.44 km</t>
+          <t>3.13 km</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15561054</v>
+        <v>46029540</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VIVO (1012303125)</t>
+          <t>VIVO (692859500)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.04 km</t>
+          <t>0.88 km</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Claro (1011660277)</t>
+          <t>Claro (686902580)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.04 km</t>
+          <t>0.91 km</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TIM (690633238)</t>
+          <t>TIM (688032311)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.05 km</t>
+          <t>0.92 km</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>24018252</v>
+        <v>7383339</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VIVO (1007970119)</t>
+          <t>TIM (1001815421)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.39 km</t>
+          <t>0.47 km</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Claro (1005373350)</t>
+          <t>VIVO (1009893561)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.42 km</t>
+          <t>1.08 km</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TIM (1001786499)</t>
+          <t>VIVO (697851702)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.42 km</t>
+          <t>1.10 km</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>58993991</v>
+        <v>38069652</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VIVO (1003484791)</t>
+          <t>VIVO (1002433239)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.41 km</t>
+          <t>0.12 km</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VIVO (1004994149)</t>
+          <t>TIM (431355959)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.41 km</t>
+          <t>0.13 km</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Claro (687528895)</t>
+          <t>Claro (683770500)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.43 km</t>
+          <t>0.13 km</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>44082169</v>
+        <v>52448533</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TIM (431362645)</t>
+          <t>VIVO (1003515697)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.04 km</t>
+          <t>0.39 km</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TIM (1005669985)</t>
+          <t>VIVO (1002432550)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.17 km</t>
+          <t>0.78 km</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>VIVO (641274181)</t>
+          <t>VIVO (1014348010)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.31 km</t>
+          <t>1.02 km</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>94610150</v>
+        <v>91483611</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TIM (684919940)</t>
+          <t>VIVO (1014348002)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2.68 km</t>
+          <t>3.46 km</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Claro (695951254)</t>
+          <t>Claro (683981897)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.69 km</t>
+          <t>3.46 km</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>VIVO (691996202)</t>
+          <t>TIM (2358832)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2.75 km</t>
+          <t>3.88 km</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>70518556</v>
+        <v>95374922</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VIVO (1012018447)</t>
+          <t>VIVO (1003515697)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.44 km</t>
+          <t>0.34 km</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Claro (1006044083)</t>
+          <t>VIVO (1014348010)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.48 km</t>
+          <t>0.74 km</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VIVO (1003949050)</t>
+          <t>TIM (685054292)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.70 km</t>
+          <t>0.74 km</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25157590</v>
+        <v>41243692</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TIM (1013215211)</t>
+          <t>VIVO (684610264)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.65 km</t>
+          <t>0.50 km</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Claro (692913866)</t>
+          <t>TIM (684704862)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.17 km</t>
+          <t>0.50 km</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>VIVO (688885080)</t>
+          <t>VIVO (1004994203)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.79 km</t>
+          <t>0.50 km</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>38069652</v>
+        <v>1940546</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VIVO (1002433239)</t>
+          <t>VIVO (691116911)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.12 km</t>
+          <t>0.22 km</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TIM (431355959)</t>
+          <t>Claro (1004248250)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.13 km</t>
+          <t>0.39 km</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Claro (683770500)</t>
+          <t>TIM (696715252)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.13 km</t>
+          <t>0.61 km</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>42584418</v>
+        <v>1941291</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Claro (1006898740)</t>
+          <t>VIVO (684625563)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.79 km</t>
+          <t>0.40 km</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Claro (683895028)</t>
+          <t>VIVO (399914358)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.24 km</t>
+          <t>0.40 km</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>VIVO (441049370)</t>
+          <t>TIM (431355509)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.51 km</t>
+          <t>0.41 km</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>103219358</v>
+        <v>31024378</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TIM (1015693102)</t>
+          <t>VIVO (1007969234)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3.49 km</t>
+          <t>0.02 km</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TIM (1012700191)</t>
+          <t>TIM (688550177)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.85 km</t>
+          <t>0.03 km</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TIM (1015692947)</t>
+          <t>VIVO (684623153)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5.79 km</t>
+          <t>0.14 km</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>59068396</v>
+        <v>36204684</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VIVO (683415905)</t>
+          <t>TIM (441989900)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.17 km</t>
+          <t>0.50 km</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Claro (684993007)</t>
+          <t>VIVO (699413800)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.53 km</t>
+          <t>0.51 km</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TIM (682930857)</t>
+          <t>VIVO (682665312)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.82 km</t>
+          <t>0.54 km</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>89129024</v>
+        <v>44171960</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Claro (1012785570)</t>
+          <t>Claro (683894757)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.13 km</t>
+          <t>0.09 km</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TIM (699189632)</t>
+          <t>VIVO (442039638)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.13 km</t>
+          <t>0.12 km</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TIM (1016098950)</t>
+          <t>VIVO (1014250118)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.13 km</t>
+          <t>0.16 km</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>45058458</v>
+        <v>46210407</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VIVO (1002432305)</t>
+          <t>VIVO (682665347)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.39 km</t>
+          <t>0.44 km</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VIVO (1001330746)</t>
+          <t>Claro (684140616)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.42 km</t>
+          <t>0.55 km</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TIM (1001948138)</t>
+          <t>VIVO (687538491)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.42 km</t>
+          <t>0.59 km</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>34025286</v>
+        <v>52953769</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VIVO (687537088)</t>
+          <t>TIM (1001723950)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.32 km</t>
+          <t>0.19 km</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VIVO (1004987452)</t>
+          <t>VIVO (442014090)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.32 km</t>
+          <t>0.23 km</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>TIM (695481630)</t>
+          <t>VIVO (1007969692)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.33 km</t>
+          <t>0.27 km</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>100937667</v>
+        <v>66391393</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TIM (431353336)</t>
+          <t>TIM (1001658784)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.98 km</t>
+          <t>0.13 km</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VIVO (443810591)</t>
+          <t>Claro (684140381)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.01 km</t>
+          <t>0.13 km</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Claro (1016174699)</t>
+          <t>TIM (1001658873)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.14 km</t>
+          <t>0.24 km</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>83012257</v>
+        <v>66748089</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VIVO (1007756435)</t>
+          <t>Claro (1004463500)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.32 km</t>
+          <t>0.35 km</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TIM (684644843)</t>
+          <t>TIM (1001811329)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.42 km</t>
+          <t>0.35 km</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VIVO (688118127)</t>
+          <t>VIVO (1007969560)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.56 km</t>
+          <t>0.36 km</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>37901672</v>
+        <v>70711895</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TIM (1007817477)</t>
+          <t>Claro (1004233652)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.67 km</t>
+          <t>0.98 km</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Claro (1013565620)</t>
+          <t>TIM (1007866915)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.71 km</t>
+          <t>0.98 km</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>VIVO (1014515960)</t>
+          <t>Claro (1005888849)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.73 km</t>
+          <t>1.06 km</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>100357610</v>
+        <v>71818782</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TIM (431360502)</t>
+          <t>VIVO (691107262)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.32 km</t>
+          <t>0.09 km</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Claro (683778102)</t>
+          <t>VIVO (1014250118)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.33 km</t>
+          <t>0.10 km</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Claro (687264138)</t>
+          <t>VIVO (442039638)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.54 km</t>
+          <t>0.18 km</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>84432420</v>
+        <v>83921133</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TIM (1000117623)</t>
+          <t>VIVO (665718373)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.43 km</t>
+          <t>0.23 km</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TIM (692807284)</t>
+          <t>Claro (1015609934)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.98 km</t>
+          <t>0.24 km</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Claro (684996936)</t>
+          <t>VIVO (1015607192)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>8.30 km</t>
+          <t>0.25 km</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>46372660</v>
+        <v>89311760</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Claro (1011904974)</t>
+          <t>TIM (1006868086)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3.09 km</t>
+          <t>0.30 km</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TIM (690623038)</t>
+          <t>VIVO (1014079923)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.13 km</t>
+          <t>0.42 km</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TIM (1015143870)</t>
+          <t>Claro (683936506)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3.13 km</t>
+          <t>0.42 km</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>86697579</v>
+        <v>92291236</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>VIVO (691116881)</t>
+          <t>Claro (683887726)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.17 km</t>
+          <t>0.61 km</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VIVO (1014462301)</t>
+          <t>TIM (688868924)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.20 km</t>
+          <t>0.62 km</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Claro (683982680)</t>
+          <t>VIVO (1013277039)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.20 km</t>
+          <t>0.64 km</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9879404</v>
+        <v>94046549</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Claro (1015898936)</t>
+          <t>Claro (684140616)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5.16 km</t>
+          <t>0.42 km</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TIM (1015631034)</t>
+          <t>VIVO (687538491)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.21 km</t>
+          <t>0.45 km</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TIM (431367230)</t>
+          <t>VIVO (682665347)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5.22 km</t>
+          <t>0.56 km</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>51640988</v>
+        <v>99830167</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Claro (1003933200)</t>
+          <t>Claro (683934228)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.41 km</t>
+          <t>0.32 km</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TIM (431354642)</t>
+          <t>VIVO (683100009)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.41 km</t>
+          <t>0.33 km</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>VIVO (1013277004)</t>
+          <t>VIVO (684623684)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.41 km</t>
+          <t>0.35 km</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67857531</v>
+        <v>101275021</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>VIVO (667987967)</t>
+          <t>TIM (1011763785)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.68 km</t>
+          <t>0.16 km</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VIVO (1013064671)</t>
+          <t>VIVO (1007265083)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.70 km</t>
+          <t>0.22 km</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Claro (685020703)</t>
+          <t>Claro (687211956)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.70 km</t>
+          <t>0.29 km</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>71387048</v>
+        <v>103486186</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Claro (684633841)</t>
+          <t>TIM (684285614)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.52 km</t>
+          <t>0.73 km</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VIVO (641274181)</t>
+          <t>Claro (1012942675)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.61 km</t>
+          <t>0.74 km</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TIM (431362645)</t>
+          <t>VIVO (399915524)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.88 km</t>
+          <t>0.76 km</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>107918587</v>
+        <v>109057368</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TIM (1002350724)</t>
+          <t>TIM (684285681)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3.65 km</t>
+          <t>0.62 km</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TIM (1015692840)</t>
+          <t>VIVO (1000183332)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.73 km</t>
+          <t>0.62 km</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Claro (1016031715)</t>
+          <t>Claro (683777777)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>9.44 km</t>
+          <t>0.74 km</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>98394940</v>
+        <v>111411190</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TIM (1001846718)</t>
+          <t>VIVO (608223794)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.51 km</t>
+          <t>0.15 km</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VIVO (692277382)</t>
+          <t>TIM (1015313571)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.59 km</t>
+          <t>0.17 km</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>VIVO (1014837607)</t>
+          <t>Claro (1003952850)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.74 km</t>
+          <t>0.17 km</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>107323869</v>
+        <v>50774360</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TIM (689806361)</t>
+          <t>VIVO (689062001)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.11 km</t>
+          <t>0.27 km</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Claro (684640333)</t>
+          <t>TIM (1004146644)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.12 km</t>
+          <t>0.49 km</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>VIVO (1015588600)</t>
+          <t>TIM (1005998652)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4.61 km</t>
+          <t>0.53 km</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>101940599</v>
+        <v>88820092</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TIM (1006868078)</t>
+          <t>VIVO (1001722601)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.25 km</t>
+          <t>0.21 km</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VIVO (691116440)</t>
+          <t>Claro (683895796)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.28 km</t>
+          <t>0.27 km</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Claro (1004177310)</t>
+          <t>VIVO (667979760)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.29 km</t>
+          <t>0.41 km</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>77654170</v>
+        <v>23315628</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VIVO (687477492)</t>
+          <t>TIM (1003762503)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2.81 km</t>
+          <t>0.73 km</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Claro (690748728)</t>
+          <t>Claro (1006631655)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.83 km</t>
+          <t>0.73 km</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TIM (692819789)</t>
+          <t>Claro (683886584)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2.84 km</t>
+          <t>1.56 km</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>107326442</v>
+        <v>34025286</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TIM (689806361)</t>
+          <t>VIVO (687537088)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.09 km</t>
+          <t>0.32 km</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Claro (684640333)</t>
+          <t>VIVO (1004987452)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.10 km</t>
+          <t>0.32 km</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>VIVO (1015588600)</t>
+          <t>TIM (695481630)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4.58 km</t>
+          <t>0.33 km</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>33836914</v>
+        <v>85213560</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Claro (1003522111)</t>
+          <t>VIVO (1015607184)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.05 km</t>
+          <t>0.77 km</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TIM (1003878528)</t>
+          <t>TIM (1015599610)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.05 km</t>
+          <t>1.11 km</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Claro (1004463569)</t>
+          <t>Claro (1003296413)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.73 km</t>
+          <t>1.16 km</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>106462261</v>
+        <v>88588084</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TIM (1015732132)</t>
+          <t>TIM (1014285124)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7.66 km</t>
+          <t>0.20 km</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VIVO (1013189067)</t>
+          <t>Claro (1016031707)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>8.04 km</t>
+          <t>0.20 km</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Claro (700016686)</t>
+          <t>VIVO (696271958)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>8.06 km</t>
+          <t>0.25 km</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112716865</v>
+        <v>92937640</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VIVO (617724610)</t>
+          <t>Claro (683983113)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3.02 km</t>
+          <t>1.84 km</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TIM (687493650)</t>
+          <t>VIVO (1013276954)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.08 km</t>
+          <t>1.90 km</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Claro (1004463453)</t>
+          <t>TIM (2360462)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3.08 km</t>
+          <t>1.91 km</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>89693841</v>
+        <v>111375940</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VIVO (683416316)</t>
+          <t>Claro (1005152737)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.35 km</t>
+          <t>1.29 km</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Claro (683770071)</t>
+          <t>VIVO (1010650170)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.37 km</t>
+          <t>1.30 km</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TIM (535862628)</t>
+          <t>Claro (688196403)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.39 km</t>
+          <t>1.52 km</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>108684024</v>
+        <v>50957287</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TIM (699818419)</t>
+          <t>VIVO (623369524)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5.11 km</t>
+          <t>3.04 km</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VIVO (623369001)</t>
+          <t>Claro (686163575)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6.53 km</t>
+          <t>3.32 km</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TIM (441990134)</t>
+          <t>VIVO (1014348215)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.58 km</t>
+          <t>3.34 km</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>102251525</v>
+        <v>92032605</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TIM (1010245357)</t>
+          <t>TIM (665723482)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.89 km</t>
+          <t>0.60 km</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Claro (1005889047)</t>
+          <t>VIVO (1014348223)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.90 km</t>
+          <t>0.61 km</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>VIVO (695248910)</t>
+          <t>VIVO (623369524)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.27 km</t>
+          <t>4.05 km</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>36097608</v>
+        <v>37134566</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Claro (683770845)</t>
+          <t>TIM (665758286)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.10 km</t>
+          <t>0.43 km</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VIVO (1014348193)</t>
+          <t>VIVO (684609991)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.13 km</t>
+          <t>0.43 km</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>VIVO (1007969528)</t>
+          <t>VIVO (689946236)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.32 km</t>
+          <t>0.43 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>75907356</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TIM (1002722613)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1.87 km</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>VIVO (1007969323)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>3.90 km</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Claro (1003912874)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>3.91 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>80013112</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>VIVO (682747165)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.17 km</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>VIVO (1007970127)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.50 km</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>TIM (1001836267)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.54 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>80378030</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VIVO (1006027650)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.37 km</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>VIVO (1014816790)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.38 km</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Claro (1005527927)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.38 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>91121167</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Claro (1012846137)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1.16 km</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>TIM (687631971)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1.23 km</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Claro (1006631990)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1.24 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>88796418</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>VIVO (684384230)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.15 km</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>TIM (442009615)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.19 km</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>TIM (1014109474)</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.19 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>100983316</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>VIVO (1005005629)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.85 km</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>TIM (695464590)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.86 km</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>VIVO (1010650057)</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.87 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>108143902</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Claro (1016220771)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>10.57 km</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Claro (684994569)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11.57 km</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>VIVO (1000597170)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>11.62 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>92131565</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Claro (687270570)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.99 km</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Claro (1004463291)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3.08 km</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>TIM (1000138043)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>3.98 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>99829622</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>VIVO (443810320)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.58 km</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>TIM (684633779)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.63 km</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Claro (1004463585)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.80 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>30727642</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Claro (1000045037)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0.26 km</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>VIVO (691451370)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2.06 km</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>TIM (699984181)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2.06 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>108918408</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>VIVO (691451370)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.89 km</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>TIM (699984181)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.89 km</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Claro (1000045037)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1.03 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54644186</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TIM (684919940)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4.69 km</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>VIVO (1016160523)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>4.70 km</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Claro (695951254)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>4.71 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>69545359</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TIM (1009440680)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.05 km</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>TIM (1015693218)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.05 km</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Claro (1015009856)</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.15 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69545359</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TIM (1009440680)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0.05 km</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>TIM (1015693218)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.05 km</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Claro (1015009856)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.15 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>95962042</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Claro (1006898759)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.23 km</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>TIM (690964650)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.27 km</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>VIVO (1015927901)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.78 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>104672234</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TIM (1003961158)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0.08 km</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VIVO (1008605252)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.97 km</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>VIVO (1016160507)</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1.00 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>107530724</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>VIVO (399917497)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0.93 km</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>TIM (687204348)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.99 km</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Claro (1014214065)</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1.00 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>111133157</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>VIVO (691996202)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.59 km</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>TIM (684919940)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.60 km</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Claro (695951254)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.60 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>51134640</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Claro (684641097)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4.13 km</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>TIM (684892855)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>4.18 km</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>VIVO (684384019)</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>4.62 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>100276075</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>VIVO (1013189067)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>5.05 km</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Claro (700016686)</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>5.07 km</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>TIM (431357595)</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>5.08 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>106809210</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Claro (1015908834)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5.88 km</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Claro (684640937)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>8.61 km</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Claro (1015811393)</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>9.17 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>51702517</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>VIVO (1003872104)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0.25 km</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>TIM (684837943)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0.25 km</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>VIVO (1007037544)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.27 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>112398790</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TIM (1007038052)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>5.83 km</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>TIM (1000144035)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>6.00 km</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>TIM (6585817)</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>6.10 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>112398790</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TIM (1007038052)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5.83 km</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>TIM (1000144035)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>6.00 km</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>TIM (6585817)</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>6.10 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>46810870</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Claro (1014322500)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>8.92 km</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Claro (1003946159)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>9.61 km</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>VIVO (690984693)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>9.62 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>45325685</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Claro (1004463470)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0.74 km</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>VIVO (641266073)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1.70 km</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Claro (683895907)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1.95 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83684891</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Claro (1004463470)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0.23 km</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VIVO (641266073)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1.47 km</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Claro (683895907)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1.75 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>102349649</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TIM (1005550473)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3.33 km</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Claro (1004463470)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>3.45 km</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>VIVO (641266073)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>4.13 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>50035452</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>VIVO (623369028)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0.55 km</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Claro (685020649)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.56 km</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>TIM (637136470)</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.59 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>99946696</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TIM (1000163382)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>5.32 km</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>TIM (684919966)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>7.60 km</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sercomtel Ligga (1015179875)</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>7.75 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>108260259</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>VIVO (1015927596)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2.77 km</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Claro (690732384)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>8.55 km</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>VIVO (693071419)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>9.01 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65261887</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Claro (690748469)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>4.04 km</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>VIVO (1012303265)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>4.04 km</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>TIM (1000069912)</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>4.34 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>95253203</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TIM (505788373)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1.59 km</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Claro (1012943698)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1.68 km</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>VIVO (442832400)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2.02 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>107323869</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TIM (689806361)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4.11 km</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Claro (684640333)</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>4.12 km</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>VIVO (1015588600)</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>4.61 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>110505743</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Claro (1015105227)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>4.51 km</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>TIM (1000401534)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>4.64 km</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>TIM (1000401631)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>13.07 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>47009004</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Claro (1004752633)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>10.95 km</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Claro (1004752617)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>11.23 km</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>VIVO (684383373)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>11.76 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>54760062</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Claro (684996626)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1.34 km</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>TIM (683412744)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1.63 km</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>VIVO (691214026)</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>1.74 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>106720775</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Claro (684996626)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>5.88 km</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>TIM (683412744)</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>6.22 km</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>VIVO (691214026)</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>6.30 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>106722670</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Claro (684996626)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4.75 km</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>TIM (683412744)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5.09 km</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>VIVO (691214026)</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>5.17 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>106722816</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Claro (684996626)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4.81 km</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>TIM (683412744)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>5.15 km</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>VIVO (691214026)</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>5.23 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>106723308</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Claro (684996626)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4.86 km</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>TIM (683412744)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>5.20 km</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>VIVO (691214026)</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>5.28 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>106723995</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Claro (684996626)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5.79 km</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>TIM (683412744)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>6.13 km</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>VIVO (691214026)</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>6.21 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>53454995</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TIM (1015760209)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2.55 km</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TIM (1016031367)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2.55 km</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>VIVO (1012303184)</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>6.05 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>104509694</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Claro (684633973)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>5.21 km</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>TIM (1014333706)</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>5.49 km</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>VIVO (443810532)</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>5.49 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>104779055</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>VIVO (1011183436)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>3.51 km</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Claro (684633973)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>3.86 km</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>TIM (431366888)</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>4.21 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>105478369</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>VIVO (1011183436)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5.11 km</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Claro (684633973)</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>5.80 km</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>TIM (431366888)</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>5.97 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>109012550</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>VIVO (1011183436)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>3.76 km</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Claro (684633973)</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>4.12 km</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>TIM (431366888)</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>4.47 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>99717930</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Claro (1011707605)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2.21 km</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>VIVO (1013189539)</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2.23 km</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>TIM (690636172)</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2.23 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>99717930</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Claro (1011707605)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2.21 km</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>VIVO (1013189539)</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2.23 km</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>TIM (690636172)</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2.23 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>66851106</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Claro (683779680)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2.24 km</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>VIVO (690075111)</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2.27 km</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>TIM (631355316)</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2.27 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>70225877</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Claro (685015424)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0.17 km</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TIM (1010457354)</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.22 km</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>VIVO (665719620)</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.77 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>110319141</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Claro (687529549)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0.54 km</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>TIM (1015503931)</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1.48 km</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>TIM (1015577153)</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1.48 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>110319141</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Claro (687529549)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0.54 km</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>TIM (1015503931)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1.48 km</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>TIM (1015577153)</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1.48 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>47863161</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>VIVO (692940499)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2.73 km</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Claro (684993783)</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2.96 km</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>TIM (431355053)</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2.98 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>83102728</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TIM (1014953860)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>4.50 km</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>VIVO (692940499)</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>8.81 km</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Claro (684993783)</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>9.01 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>88716350</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TIM (431355053)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0.63 km</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Claro (684993783)</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.65 km</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>VIVO (692940499)</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.88 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>92733840</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Claro (684141876)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0.56 km</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>VIVO (617724571)</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.57 km</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>TIM (684665638)</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.57 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>67992935</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Claro (1015216029)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2.43 km</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>TIM (1000117410)</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>3.10 km</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>TIM (1015693005)</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>7.95 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>8942714</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TIM (1001628621)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>7.59 km</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>TIM (1001631088)</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>9.86 km</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>TIM (1015693021)</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>11.77 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>99922835</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TIM (684892820)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2.27 km</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Claro (700009752)</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2.42 km</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>VIVO (684383365)</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2.44 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>46563539</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TIM (1002409982)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>7.28 km</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>TIM (1003760950)</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>11.26 km</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>VIVO (1012302811)</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>16.91 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>107919168</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Claro (686222245)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>5.48 km</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>VIVO (686810759)</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>5.49 km</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>TIM (684838044)</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>5.52 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>79184375</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Claro (692878190)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>20.32 km</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>TIM (1008640490)</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>21.23 km</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>VIVO (1011734572)</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>21.23 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>112644317</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>TIM (1002380097)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>3.77 km</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>TIM (1015808007)</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>5.13 km</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>VIVO (688118070)</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>5.22 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>57029911</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Claro (690732970)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4.54 km</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>VIVO (1012302846)</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>4.54 km</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>TIM (692815830)</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>4.58 km</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10085459</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>VIVO (688117937)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0.99 km</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>TIM (431355177)</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1.07 km</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Claro (683895567)</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>1.10 km</t>
         </is>
       </c>
     </row>

--- a/assets/excel/resultados_antenas.xlsx
+++ b/assets/excel/resultados_antenas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,301 +472,301 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84029730</v>
+        <v>91366305</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VIVO (1003839263)</t>
+          <t>Claro (683966227)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.80 km</t>
+          <t>0.27 km</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TIM (1014567537)</t>
+          <t>VIVO (687540569)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.88 km</t>
+          <t>0.27 km</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TIM (1008007479)</t>
+          <t>VIVO (689556810)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.38 km</t>
+          <t>0.29 km</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107988615</v>
+        <v>73076236</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Claro (690748701)</t>
+          <t>TIM (431343756)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.44 km</t>
+          <t>1.15 km</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VIVO (688445586)</t>
+          <t>Claro (684634635)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.64 km</t>
+          <t>1.18 km</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VIVO (689403070)</t>
+          <t>VIVO (684700824)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.64 km</t>
+          <t>1.21 km</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18531571</v>
+        <v>67586015</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VIVO (1005638834)</t>
+          <t>TIM (523080042)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.57 km</t>
+          <t>2.19 km</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TIM (1007202081)</t>
+          <t>VIVO (1002431074)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.57 km</t>
+          <t>2.21 km</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VIVO (1013189091)</t>
+          <t>VIVO (511476175)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.58 km</t>
+          <t>2.49 km</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97011878</v>
+        <v>75645874</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIM (695476246)</t>
+          <t>VIVO (1014149956)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.26 km</t>
+          <t>0.30 km</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VIVO (688445543)</t>
+          <t>TIM (1008652935)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.27 km</t>
+          <t>0.30 km</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VIVO (691552452)</t>
+          <t>Claro (683777181)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.27 km</t>
+          <t>0.30 km</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106187740</v>
+        <v>1941739</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Claro (690568525)</t>
+          <t>TIM (1006807281)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.04 km</t>
+          <t>0.25 km</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TIM (695330373)</t>
+          <t>VIVO (1006718084)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.05 km</t>
+          <t>0.40 km</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VIVO (689403089)</t>
+          <t>Claro (1003960496)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9.08 km</t>
+          <t>0.40 km</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108174344</v>
+        <v>40632202</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Claro (686174070)</t>
+          <t>VIVO (442013981)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10.49 km</t>
+          <t>0.23 km</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TIM (441990177)</t>
+          <t>Claro (683777696)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.50 km</t>
+          <t>0.29 km</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VIVO (699576440)</t>
+          <t>VIVO (697341712)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.72 km</t>
+          <t>0.29 km</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111652006</v>
+        <v>46026207</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TIM (1002571577)</t>
+          <t>VIVO (688851665)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.67 km</t>
+          <t>0.38 km</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TIM (1015706107)</t>
+          <t>Claro (687567939)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13.97 km</t>
+          <t>0.41 km</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TIM (1002557620)</t>
+          <t>TIM (689725124)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14.64 km</t>
+          <t>0.42 km</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>101357249</v>
+        <v>76059847</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VIVO (1005545909)</t>
+          <t>Claro (1003473170)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.78 km</t>
+          <t>0.58 km</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TIM (692822097)</t>
+          <t>TIM (1001843751)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.78 km</t>
+          <t>0.59 km</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Claro (1005036702)</t>
+          <t>VIVO (1007969471)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.79 km</t>
+          <t>0.61 km</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>83262229</v>
+        <v>76239144</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Claro (700053700)</t>
+          <t>TIM (431355940)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.24 km</t>
+          <t>0.46 km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VIVO (1009797619)</t>
+          <t>VIVO (1014149883)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -776,477 +776,477 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TIM (699914000)</t>
+          <t>Claro (1003503486)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.48 km</t>
+          <t>0.49 km</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>87151979</v>
+        <v>76073599</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Claro (1007414585)</t>
+          <t>Claro (1012942675)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.59 km</t>
+          <t>0.03 km</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TIM (1009949907)</t>
+          <t>VIVO (399915524)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.59 km</t>
+          <t>0.03 km</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>VIVO (1013036430)</t>
+          <t>TIM (684285614)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.59 km</t>
+          <t>0.05 km</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>102124922</v>
+        <v>27687147</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VIVO (442833016)</t>
+          <t>Claro (1015603472)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.36 km</t>
+          <t>1.58 km</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VIVO (684775581)</t>
+          <t>VIVO (683905961)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.36 km</t>
+          <t>1.58 km</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>VIVO (1014291914)</t>
+          <t>VIVO (1005877162)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.72 km</t>
+          <t>1.59 km</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>92649483</v>
+        <v>98413716</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TIM (695472682)</t>
+          <t>VIVO (691116474)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.12 km</t>
+          <t>0.12 km</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Claro (1012943680)</t>
+          <t>TIM (1005716878)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.13 km</t>
+          <t>0.19 km</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VIVO (1005877154)</t>
+          <t>VIVO (1005596902)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7.14 km</t>
+          <t>0.20 km</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>97448273</v>
+        <v>86735446</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TIM (1011502094)</t>
+          <t>TIM (431357706)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16.95 km</t>
+          <t>0.32 km</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TIM (1006170100)</t>
+          <t>VIVO (1012406021)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18.83 km</t>
+          <t>0.32 km</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>VIVO (684688239)</t>
+          <t>Claro (684993481)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19.44 km</t>
+          <t>0.34 km</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111011230</v>
+        <v>104023953</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VIVO (684808307)</t>
+          <t>VIVO (690361564)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.37 km</t>
+          <t>1.78 km</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TIM (637136454)</t>
+          <t>VIVO (1015774048)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.38 km</t>
+          <t>3.51 km</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Claro (689735839)</t>
+          <t>TIM (1012312701)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.39 km</t>
+          <t>3.62 km</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>107862271</v>
+        <v>67775918</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VIVO (613595050)</t>
+          <t>Claro (683895125)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.70 km</t>
+          <t>0.69 km</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TIM (687631980)</t>
+          <t>VIVO (687477387)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.77 km</t>
+          <t>0.71 km</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VIVO (1005005742)</t>
+          <t>TIM (431354910)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.78 km</t>
+          <t>0.76 km</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>96937505</v>
+        <v>48778176</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Claro (693622644)</t>
+          <t>TIM (1012404207)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10.77 km</t>
+          <t>0.53 km</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TIM (682691542)</t>
+          <t>Claro (690710917)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10.83 km</t>
+          <t>0.55 km</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VIVO (684684896)</t>
+          <t>TIM (686715586)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10.83 km</t>
+          <t>0.59 km</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>95485023</v>
+        <v>91562163</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Claro (1005966882)</t>
+          <t>VIVO (1011183410)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.04 km</t>
+          <t>1.28 km</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Claro (1007852744)</t>
+          <t>Claro (686222350)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.10 km</t>
+          <t>2.21 km</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Claro (685016781)</t>
+          <t>TIM (688479430)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.13 km</t>
+          <t>2.24 km</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>46029540</v>
+        <v>71309039</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VIVO (692859500)</t>
+          <t>VIVO (1014717571)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.88 km</t>
+          <t>0.21 km</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Claro (686902580)</t>
+          <t>VIVO (613595050)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.91 km</t>
+          <t>1.40 km</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TIM (688032311)</t>
+          <t>TIM (687631980)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.92 km</t>
+          <t>1.49 km</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7383339</v>
+        <v>81464088</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TIM (1001815421)</t>
+          <t>VIVO (1014717571)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.47 km</t>
+          <t>2.10 km</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VIVO (1009893561)</t>
+          <t>TIM (695330250)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.08 km</t>
+          <t>2.67 km</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>VIVO (697851702)</t>
+          <t>VIVO (1005545941)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.10 km</t>
+          <t>2.69 km</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>38069652</v>
+        <v>83938451</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VIVO (1002433239)</t>
+          <t>TIM (686147650)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.12 km</t>
+          <t>0.57 km</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TIM (431355959)</t>
+          <t>Claro (687528763)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.13 km</t>
+          <t>0.63 km</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Claro (683770500)</t>
+          <t>VIVO (1005545933)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.13 km</t>
+          <t>0.66 km</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>52448533</v>
+        <v>60852550</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VIVO (1003515697)</t>
+          <t>TIM (1009440680)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.39 km</t>
+          <t>0.20 km</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VIVO (1002432550)</t>
+          <t>TIM (1015693218)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.78 km</t>
+          <t>0.20 km</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>VIVO (1014348010)</t>
+          <t>Sercomtel Ligga (1015179891)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.02 km</t>
+          <t>0.25 km</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>91483611</v>
+        <v>99458810</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VIVO (1014348002)</t>
+          <t>TIM (355895811)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3.46 km</t>
+          <t>0.71 km</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Claro (683981897)</t>
+          <t>Claro (687263832)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.46 km</t>
+          <t>0.72 km</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TIM (2358832)</t>
+          <t>Claro (1006898732)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3.88 km</t>
+          <t>0.75 km</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>95374922</v>
+        <v>4333659</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VIVO (1003515697)</t>
+          <t>VIVO (1014229445)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1256,343 +1256,343 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VIVO (1014348010)</t>
+          <t>VIVO (1009026086)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.74 km</t>
+          <t>0.66 km</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TIM (685054292)</t>
+          <t>TIM (699914000)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.74 km</t>
+          <t>0.66 km</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>41243692</v>
+        <v>97328774</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VIVO (684610264)</t>
+          <t>TIM (431343756)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.50 km</t>
+          <t>0.19 km</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TIM (684704862)</t>
+          <t>Claro (684634635)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.50 km</t>
+          <t>0.22 km</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>VIVO (1004994203)</t>
+          <t>VIVO (684700824)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.50 km</t>
+          <t>0.24 km</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1940546</v>
+        <v>91660017</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VIVO (691116911)</t>
+          <t>VIVO (522987370)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.22 km</t>
+          <t>0.09 km</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Claro (1004248250)</t>
+          <t>VIVO (1014462379)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.39 km</t>
+          <t>0.37 km</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TIM (696715252)</t>
+          <t>VIVO (1014816790)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.61 km</t>
+          <t>0.37 km</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1941291</v>
+        <v>59257911</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VIVO (684625563)</t>
+          <t>Claro (683981897)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.40 km</t>
+          <t>1.62 km</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VIVO (399914358)</t>
+          <t>VIVO (1014348002)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.40 km</t>
+          <t>1.62 km</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TIM (431355509)</t>
+          <t>VIVO (399916369)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.41 km</t>
+          <t>1.76 km</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>31024378</v>
+        <v>43751130</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VIVO (1007969234)</t>
+          <t>Claro (683887408)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.02 km</t>
+          <t>0.28 km</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TIM (688550177)</t>
+          <t>TIM (431354383)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.03 km</t>
+          <t>0.29 km</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>VIVO (684623153)</t>
+          <t>VIVO (1014149930)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.14 km</t>
+          <t>0.30 km</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>36204684</v>
+        <v>104509694</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TIM (441989900)</t>
+          <t>Claro (684633973)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.50 km</t>
+          <t>5.21 km</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VIVO (699413800)</t>
+          <t>TIM (1014333706)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.51 km</t>
+          <t>5.49 km</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VIVO (682665312)</t>
+          <t>VIVO (443810532)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.54 km</t>
+          <t>5.49 km</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>44171960</v>
+        <v>91767210</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Claro (683894757)</t>
+          <t>TIM (1008722984)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.09 km</t>
+          <t>0.29 km</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VIVO (442039638)</t>
+          <t>VIVO (1009894614)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.12 km</t>
+          <t>0.29 km</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>VIVO (1014250118)</t>
+          <t>Claro (1008170183)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.16 km</t>
+          <t>0.45 km</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>46210407</v>
+        <v>105278548</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VIVO (682665347)</t>
+          <t>VIVO (1000597196)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.44 km</t>
+          <t>2.30 km</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Claro (684140616)</t>
+          <t>TIM (695482432)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.55 km</t>
+          <t>2.84 km</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>VIVO (687538491)</t>
+          <t>VIVO (1008990334)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.59 km</t>
+          <t>2.85 km</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>52953769</v>
+        <v>88479161</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TIM (1001723950)</t>
+          <t>Claro (683934686)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.19 km</t>
+          <t>0.13 km</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VIVO (442014090)</t>
+          <t>VIVO (1014229429)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.23 km</t>
+          <t>0.13 km</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>VIVO (1007969692)</t>
+          <t>TIM (431361967)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.27 km</t>
+          <t>0.14 km</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>66391393</v>
+        <v>94722650</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TIM (1001658784)</t>
+          <t>Claro (1007414607)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.13 km</t>
+          <t>0.03 km</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Claro (684140381)</t>
+          <t>VIVO (1013036384)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.13 km</t>
+          <t>0.66 km</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TIM (1001658873)</t>
+          <t>TIM (697642291)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.24 km</t>
+          <t>0.68 km</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>66748089</v>
+        <v>23580798</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1601,3107 +1601,1567 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>0.25 km</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TIM (1008986264)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>0.35 km</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>TIM (1001811329)</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.35 km</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VIVO (1007969560)</t>
+          <t>VIVO (1011245504)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.36 km</t>
+          <t>0.69 km</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>70711895</v>
+        <v>45929106</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Claro (1004233652)</t>
+          <t>TIM (1011925130)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.98 km</t>
+          <t>2.29 km</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TIM (1007866915)</t>
+          <t>VIVO (684383365)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.98 km</t>
+          <t>7.14 km</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Claro (1005888849)</t>
+          <t>TIM (684892820)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.06 km</t>
+          <t>7.18 km</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>71818782</v>
+        <v>63360489</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VIVO (691107262)</t>
+          <t>Claro (690163894)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.09 km</t>
+          <t>0.26 km</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VIVO (1014250118)</t>
+          <t>TIM (1003406448)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.10 km</t>
+          <t>0.60 km</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>VIVO (442039638)</t>
+          <t>VIVO (1016160507)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.18 km</t>
+          <t>0.81 km</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>83921133</v>
+        <v>99751160</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VIVO (665718373)</t>
+          <t>Claro (686902530)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.23 km</t>
+          <t>8.90 km</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Claro (1015609934)</t>
+          <t>Claro (1006631965)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.24 km</t>
+          <t>9.45 km</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>VIVO (1015607192)</t>
+          <t>TIM (1013061435)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.25 km</t>
+          <t>9.52 km</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>89311760</v>
+        <v>97448273</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TIM (1006868086)</t>
+          <t>TIM (1011502094)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.30 km</t>
+          <t>16.95 km</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VIVO (1014079923)</t>
+          <t>TIM (1006170100)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.42 km</t>
+          <t>18.83 km</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Claro (683936506)</t>
+          <t>VIVO (684688239)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.42 km</t>
+          <t>19.44 km</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>92291236</v>
+        <v>100353320</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Claro (683887726)</t>
+          <t>VIVO (665608780)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.61 km</t>
+          <t>0.92 km</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TIM (688868924)</t>
+          <t>TIM (1009949915)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.62 km</t>
+          <t>1.05 km</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>VIVO (1013277039)</t>
+          <t>VIVO (1013036449)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.64 km</t>
+          <t>1.05 km</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>94046549</v>
+        <v>44266162</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Claro (684140616)</t>
+          <t>Claro (690915268)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.42 km</t>
+          <t>0.91 km</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VIVO (687538491)</t>
+          <t>VIVO (688445454)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.45 km</t>
+          <t>1.21 km</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>VIVO (682665347)</t>
+          <t>TIM (688479278)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.56 km</t>
+          <t>1.24 km</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>99830167</v>
+        <v>97923702</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Claro (683934228)</t>
+          <t>TIM (1007769537)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.32 km</t>
+          <t>0.34 km</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VIVO (683100009)</t>
+          <t>Claro (1004463577)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.33 km</t>
+          <t>0.62 km</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>VIVO (684623684)</t>
+          <t>VIVO (1007969579)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.35 km</t>
+          <t>0.62 km</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>101275021</v>
+        <v>43979670</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TIM (1011763785)</t>
+          <t>Claro (683895842)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.16 km</t>
+          <t>0.91 km</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VIVO (1007265083)</t>
+          <t>VIVO (399916660)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.22 km</t>
+          <t>0.92 km</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Claro (687211956)</t>
+          <t>VIVO (684702533)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.29 km</t>
+          <t>1.03 km</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>103486186</v>
+        <v>73000493</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TIM (684285614)</t>
+          <t>VIVO (399916474)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.73 km</t>
+          <t>0.18 km</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Claro (1012942675)</t>
+          <t>VIVO (1003651981)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.74 km</t>
+          <t>0.25 km</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>VIVO (399915524)</t>
+          <t>TIM (1003541345)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.76 km</t>
+          <t>0.26 km</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>109057368</v>
+        <v>71355006</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TIM (684285681)</t>
+          <t>TIM (431352267)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.62 km</t>
+          <t>0.08 km</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VIVO (1000183332)</t>
+          <t>VIVO (699416310)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.62 km</t>
+          <t>0.08 km</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Claro (683777777)</t>
+          <t>VIVO (1008548534)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.74 km</t>
+          <t>0.14 km</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111411190</v>
+        <v>31177883</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VIVO (608223794)</t>
+          <t>Claro (700016457)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.15 km</t>
+          <t>0.49 km</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TIM (1015313571)</t>
+          <t>VIVO (686696700)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.17 km</t>
+          <t>0.50 km</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Claro (1003952850)</t>
+          <t>TIM (684630460)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.17 km</t>
+          <t>0.50 km</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>50774360</v>
+        <v>38069652</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>VIVO (689062001)</t>
+          <t>VIVO (1002433239)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.27 km</t>
+          <t>0.12 km</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>TIM (1004146644)</t>
+          <t>TIM (431355959)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.49 km</t>
+          <t>0.13 km</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TIM (1005998652)</t>
+          <t>Claro (683770500)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.53 km</t>
+          <t>0.13 km</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>88820092</v>
+        <v>23315628</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VIVO (1001722601)</t>
+          <t>TIM (1003762503)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.21 km</t>
+          <t>0.73 km</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Claro (683895796)</t>
+          <t>Claro (1006631655)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.27 km</t>
+          <t>0.73 km</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>VIVO (667979760)</t>
+          <t>Claro (683886584)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.41 km</t>
+          <t>1.56 km</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23315628</v>
+        <v>19450265</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TIM (1003762503)</t>
+          <t>Claro (1003861480)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.73 km</t>
+          <t>0.65 km</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Claro (1006631655)</t>
+          <t>VIVO (699414709)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.73 km</t>
+          <t>0.66 km</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Claro (683886584)</t>
+          <t>Claro (683773224)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.56 km</t>
+          <t>0.69 km</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>34025286</v>
+        <v>50017772</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VIVO (687537088)</t>
+          <t>TIM (1008584557)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.32 km</t>
+          <t>2.26 km</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VIVO (1004987452)</t>
+          <t>Claro (685016714)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.32 km</t>
+          <t>2.26 km</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TIM (695481630)</t>
+          <t>TIM (693097582)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.33 km</t>
+          <t>2.29 km</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>85213560</v>
+        <v>111931266</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VIVO (1015607184)</t>
+          <t>VIVO (1013189423)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.77 km</t>
+          <t>4.16 km</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TIM (1015599610)</t>
+          <t>TIM (699818940)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.11 km</t>
+          <t>4.16 km</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Claro (1003296413)</t>
+          <t>CLARO (690529449)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.16 km</t>
+          <t>6.50 km</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>88588084</v>
+        <v>34025286</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TIM (1014285124)</t>
+          <t>VIVO (687537088)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.20 km</t>
+          <t>0.32 km</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Claro (1016031707)</t>
+          <t>VIVO (1004987452)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.20 km</t>
+          <t>0.32 km</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VIVO (696271958)</t>
+          <t>TIM (695481630)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.25 km</t>
+          <t>0.33 km</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>92937640</v>
+        <v>85706124</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Claro (683983113)</t>
+          <t>Claro (1004773444)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.84 km</t>
+          <t>0.51 km</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VIVO (1013276954)</t>
+          <t>VIVO (1008217864)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.90 km</t>
+          <t>0.59 km</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>TIM (2360462)</t>
+          <t>TIM (1001860516)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.91 km</t>
+          <t>0.72 km</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111375940</v>
+        <v>79184375</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Claro (1005152737)</t>
+          <t>Claro (692878190)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.29 km</t>
+          <t>20.32 km</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VIVO (1010650170)</t>
+          <t>TIM (1008640490)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.30 km</t>
+          <t>21.23 km</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Claro (688196403)</t>
+          <t>VIVO (1011734572)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.52 km</t>
+          <t>21.23 km</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>50957287</v>
+        <v>37901672</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VIVO (623369524)</t>
+          <t>TIM (1007817477)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3.04 km</t>
+          <t>0.67 km</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Claro (686163575)</t>
+          <t>Claro (1013565620)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.32 km</t>
+          <t>0.71 km</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>VIVO (1014348215)</t>
+          <t>VIVO (1014515960)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3.34 km</t>
+          <t>0.73 km</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>92032605</v>
+        <v>77630530</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TIM (665723482)</t>
+          <t>Claro (1004463550)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.60 km</t>
+          <t>0.48 km</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VIVO (1014348223)</t>
+          <t>TIM (687631610)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.61 km</t>
+          <t>1.56 km</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>VIVO (623369524)</t>
+          <t>VIVO (399916300)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4.05 km</t>
+          <t>1.64 km</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>37134566</v>
+        <v>86697579</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TIM (665758286)</t>
+          <t>VIVO (691116881)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.43 km</t>
+          <t>0.17 km</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VIVO (684609991)</t>
+          <t>VIVO (1014462301)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.43 km</t>
+          <t>0.20 km</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>VIVO (689946236)</t>
+          <t>Claro (683982680)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.43 km</t>
+          <t>0.20 km</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>75907356</v>
+        <v>70353760</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TIM (1002722613)</t>
+          <t>TIM (1013215211)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.87 km</t>
+          <t>0.58 km</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VIVO (1007969323)</t>
+          <t>VIVO (688885080)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3.90 km</t>
+          <t>0.82 km</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Claro (1003912874)</t>
+          <t>Claro (692913866)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3.91 km</t>
+          <t>1.03 km</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>80013112</v>
+        <v>108883590</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VIVO (682747165)</t>
+          <t>Claro (1014322500)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.17 km</t>
+          <t>1.90 km</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VIVO (1007970127)</t>
+          <t>Claro (1003946159)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.50 km</t>
+          <t>2.60 km</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TIM (1001836267)</t>
+          <t>VIVO (690984693)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.54 km</t>
+          <t>2.61 km</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>80378030</v>
+        <v>108371638</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VIVO (1006027650)</t>
+          <t>TIM (699189586)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.37 km</t>
+          <t>2.53 km</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VIVO (1014816790)</t>
+          <t>TIM (355895790)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.38 km</t>
+          <t>3.17 km</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Claro (1005527927)</t>
+          <t>Claro (684994402)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.38 km</t>
+          <t>3.18 km</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>91121167</v>
+        <v>77651413</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Claro (1012846137)</t>
+          <t>TIM (1000163447)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.16 km</t>
+          <t>5.50 km</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TIM (687631971)</t>
+          <t>VIVO (1012302552)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.23 km</t>
+          <t>6.52 km</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Claro (1006631990)</t>
+          <t>Claro (690671156)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.24 km</t>
+          <t>6.53 km</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>88796418</v>
+        <v>109776828</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>VIVO (684384230)</t>
+          <t>VIVO (690361564)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.15 km</t>
+          <t>4.48 km</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TIM (442009615)</t>
+          <t>VIVO (691939845)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.19 km</t>
+          <t>4.48 km</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>TIM (1014109474)</t>
+          <t>VIVO (1015774048)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.19 km</t>
+          <t>6.20 km</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>100983316</v>
+        <v>107918587</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VIVO (1005005629)</t>
+          <t>TIM (1002350724)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.85 km</t>
+          <t>3.65 km</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TIM (695464590)</t>
+          <t>TIM (1015692840)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.86 km</t>
+          <t>7.73 km</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>VIVO (1010650057)</t>
+          <t>Claro (1016031715)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.87 km</t>
+          <t>9.44 km</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>108143902</v>
+        <v>110640799</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Claro (1016220771)</t>
+          <t>TIM (1008986264)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10.57 km</t>
+          <t>0.40 km</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Claro (684994569)</t>
+          <t>Claro (1004463500)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11.57 km</t>
+          <t>0.83 km</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>VIVO (1000597170)</t>
+          <t>VIVO (1011245504)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11.62 km</t>
+          <t>1.04 km</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>92131565</v>
+        <v>56835183</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Claro (687270570)</t>
+          <t>TIM (1002595735)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.99 km</t>
+          <t>0.06 km</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Claro (1004463291)</t>
+          <t>VIVO (1007969048)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3.08 km</t>
+          <t>0.06 km</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>TIM (1000138043)</t>
+          <t>TIM (1001952445)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3.98 km</t>
+          <t>0.08 km</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>99829622</v>
+        <v>107691027</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>VIVO (443810320)</t>
+          <t>VIVO (691939420)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.58 km</t>
+          <t>1.41 km</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>TIM (684633779)</t>
+          <t>TIM (684826534)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.63 km</t>
+          <t>1.43 km</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Claro (1004463585)</t>
+          <t>Claro (687263840)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.80 km</t>
+          <t>1.74 km</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>30727642</v>
+        <v>107323869</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Claro (1000045037)</t>
+          <t>TIM (689806361)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.26 km</t>
+          <t>4.11 km</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VIVO (691451370)</t>
+          <t>Claro (684640333)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2.06 km</t>
+          <t>4.12 km</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TIM (699984181)</t>
+          <t>VIVO (1015588600)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2.06 km</t>
+          <t>4.61 km</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>108918408</v>
+        <v>106722816</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VIVO (691451370)</t>
+          <t>Claro (684996626)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.89 km</t>
+          <t>4.81 km</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>TIM (699984181)</t>
+          <t>TIM (683412744)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.89 km</t>
+          <t>5.15 km</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Claro (1000045037)</t>
+          <t>VIVO (691214026)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.03 km</t>
+          <t>5.23 km</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>54644186</v>
+        <v>68554559</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TIM (684919940)</t>
+          <t>Sercomtel Ligga (1015179697)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4.69 km</t>
+          <t>0.13 km</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VIVO (1016160523)</t>
+          <t>Claro (690163991)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4.70 km</t>
+          <t>0.14 km</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Claro (695951254)</t>
+          <t>TIM (684148897)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4.71 km</t>
+          <t>0.23 km</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>69545359</v>
+        <v>107919168</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TIM (1009440680)</t>
+          <t>Claro (686222245)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.05 km</t>
+          <t>5.48 km</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TIM (1015693218)</t>
+          <t>VIVO (686810759)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.05 km</t>
+          <t>5.49 km</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Claro (1015009856)</t>
+          <t>TIM (684838044)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.15 km</t>
+          <t>5.52 km</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69545359</v>
+        <v>108898695</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TIM (1009440680)</t>
+          <t>VIVO (1012302811)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.05 km</t>
+          <t>6.70 km</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TIM (1015693218)</t>
+          <t>Claro (1011707702)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.05 km</t>
+          <t>6.74 km</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Claro (1015009856)</t>
+          <t>TIM (690633360)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.15 km</t>
+          <t>6.75 km</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>95962042</v>
+        <v>107326442</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Claro (1006898759)</t>
+          <t>TIM (689806361)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.23 km</t>
+          <t>4.09 km</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TIM (690964650)</t>
+          <t>Claro (684640333)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.27 km</t>
+          <t>4.10 km</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>VIVO (1015927901)</t>
+          <t>VIVO (1015588600)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.78 km</t>
+          <t>4.58 km</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>104672234</v>
+        <v>104779055</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TIM (1003961158)</t>
+          <t>VIVO (1011183436)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.08 km</t>
+          <t>3.51 km</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VIVO (1008605252)</t>
+          <t>Claro (684633973)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.97 km</t>
+          <t>3.86 km</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>VIVO (1016160507)</t>
+          <t>TIM (431366888)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.00 km</t>
+          <t>4.21 km</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>107530724</v>
+        <v>100066836</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VIVO (399917497)</t>
+          <t>Claro (1015898995)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.93 km</t>
+          <t>4.18 km</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TIM (687204348)</t>
+          <t>Claro (684994372)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.99 km</t>
+          <t>5.03 km</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Claro (1014214065)</t>
+          <t>TIM (683383922)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.00 km</t>
+          <t>5.03 km</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111133157</v>
+        <v>109056191</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VIVO (691996202)</t>
+          <t>VIVO (684703564)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.59 km</t>
+          <t>1.92 km</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>TIM (684919940)</t>
+          <t>TIM (431361622)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.60 km</t>
+          <t>1.97 km</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Claro (695951254)</t>
+          <t>VIVO (442832982)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.60 km</t>
+          <t>1.99 km</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>51134640</v>
+        <v>62239325</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Claro (684641097)</t>
+          <t>VIVO (665719582)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>4.13 km</t>
+          <t>0.69 km</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>TIM (684892855)</t>
+          <t>Claro (684996910)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4.18 km</t>
+          <t>0.72 km</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>VIVO (684384019)</t>
+          <t>TIM (431361460)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>4.62 km</t>
+          <t>0.76 km</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>100276075</v>
+        <v>93673914</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>VIVO (1013189067)</t>
+          <t>VIVO (1010824306)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5.05 km</t>
+          <t>0.27 km</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Claro (700016686)</t>
+          <t>VIVO (687679915)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5.07 km</t>
+          <t>0.69 km</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>TIM (431357595)</t>
+          <t>Claro (687263875)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>5.08 km</t>
+          <t>0.71 km</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>106809210</v>
+        <v>112078290</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Claro (1015908834)</t>
+          <t>TIM (1007866907)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5.88 km</t>
+          <t>1.84 km</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Claro (684640937)</t>
+          <t>VIVO (1013189032)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>8.61 km</t>
+          <t>1.84 km</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Claro (1015811393)</t>
+          <t>Claro (1004766073)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>9.17 km</t>
+          <t>2.16 km</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>51702517</v>
+        <v>92372880</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>VIVO (1003872104)</t>
+          <t>VIVO (1006049344)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.25 km</t>
+          <t>2.32 km</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>TIM (684837943)</t>
+          <t>TIM (1005961058)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.25 km</t>
+          <t>2.33 km</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>VIVO (1007037544)</t>
+          <t>Claro (1014076460)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.27 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>112398790</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>TIM (1007038052)</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>5.83 km</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>TIM (1000144035)</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>6.00 km</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>TIM (6585817)</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>6.10 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>112398790</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>TIM (1007038052)</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>5.83 km</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>TIM (1000144035)</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>6.00 km</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>TIM (6585817)</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>6.10 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>46810870</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Claro (1014322500)</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>8.92 km</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Claro (1003946159)</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>9.61 km</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>VIVO (690984693)</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>9.62 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>45325685</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Claro (1004463470)</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>0.74 km</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>VIVO (641266073)</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>1.70 km</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Claro (683895907)</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>1.95 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>83684891</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Claro (1004463470)</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>0.23 km</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>VIVO (641266073)</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>1.47 km</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Claro (683895907)</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>1.75 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>102349649</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>TIM (1005550473)</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>3.33 km</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Claro (1004463470)</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>3.45 km</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>VIVO (641266073)</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>4.13 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>50035452</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>VIVO (623369028)</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>0.55 km</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Claro (685020649)</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0.56 km</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>TIM (637136470)</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>0.59 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>99946696</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>TIM (1000163382)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>5.32 km</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>TIM (684919966)</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>7.60 km</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sercomtel Ligga (1015179875)</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>7.75 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>108260259</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>VIVO (1015927596)</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>2.77 km</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Claro (690732384)</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>8.55 km</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>VIVO (693071419)</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>9.01 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>65261887</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Claro (690748469)</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>4.04 km</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>VIVO (1012303265)</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>4.04 km</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>TIM (1000069912)</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>4.34 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>95253203</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>TIM (505788373)</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>1.59 km</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Claro (1012943698)</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>1.68 km</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>VIVO (442832400)</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2.02 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>107323869</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>TIM (689806361)</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>4.11 km</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Claro (684640333)</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>4.12 km</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>VIVO (1015588600)</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>4.61 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>110505743</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Claro (1015105227)</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>4.51 km</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>TIM (1000401534)</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>4.64 km</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>TIM (1000401631)</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>13.07 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>47009004</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Claro (1004752633)</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>10.95 km</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Claro (1004752617)</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>11.23 km</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>VIVO (684383373)</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>11.76 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>54760062</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Claro (684996626)</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>1.34 km</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>TIM (683412744)</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>1.63 km</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>VIVO (691214026)</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>1.74 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>106720775</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Claro (684996626)</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>5.88 km</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>TIM (683412744)</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>6.22 km</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>VIVO (691214026)</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>6.30 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>106722670</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Claro (684996626)</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>4.75 km</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>TIM (683412744)</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>5.09 km</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>VIVO (691214026)</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>5.17 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>106722816</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Claro (684996626)</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>4.81 km</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>TIM (683412744)</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>5.15 km</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>VIVO (691214026)</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>5.23 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>106723308</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Claro (684996626)</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>4.86 km</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>TIM (683412744)</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>5.20 km</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>VIVO (691214026)</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>5.28 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>106723995</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Claro (684996626)</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>5.79 km</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>TIM (683412744)</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>6.13 km</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>VIVO (691214026)</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>6.21 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>53454995</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>TIM (1015760209)</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>2.55 km</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>TIM (1016031367)</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>2.55 km</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>VIVO (1012303184)</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>6.05 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>104509694</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Claro (684633973)</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>5.21 km</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>TIM (1014333706)</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>5.49 km</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>VIVO (443810532)</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>5.49 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>104779055</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>VIVO (1011183436)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>3.51 km</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Claro (684633973)</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>3.86 km</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>TIM (431366888)</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>4.21 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>105478369</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>VIVO (1011183436)</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>5.11 km</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Claro (684633973)</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>5.80 km</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>TIM (431366888)</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>5.97 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>109012550</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>VIVO (1011183436)</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>3.76 km</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Claro (684633973)</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>4.12 km</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>TIM (431366888)</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>4.47 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>99717930</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Claro (1011707605)</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2.21 km</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>VIVO (1013189539)</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>2.23 km</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>TIM (690636172)</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>2.23 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>99717930</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Claro (1011707605)</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2.21 km</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>VIVO (1013189539)</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>2.23 km</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>TIM (690636172)</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>2.23 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>66851106</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Claro (683779680)</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2.24 km</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>VIVO (690075111)</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2.27 km</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>TIM (631355316)</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>2.27 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>70225877</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Claro (685015424)</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>0.17 km</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>TIM (1010457354)</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0.22 km</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>VIVO (665719620)</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>0.77 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>110319141</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Claro (687529549)</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>0.54 km</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>TIM (1015503931)</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>1.48 km</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>TIM (1015577153)</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>1.48 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>110319141</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Claro (687529549)</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>0.54 km</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>TIM (1015503931)</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>1.48 km</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>TIM (1015577153)</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>1.48 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>47863161</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>VIVO (692940499)</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>2.73 km</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Claro (684993783)</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>2.96 km</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>TIM (431355053)</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>2.98 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>83102728</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>TIM (1014953860)</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>4.50 km</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>VIVO (692940499)</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>8.81 km</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Claro (684993783)</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>9.01 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>88716350</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>TIM (431355053)</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>0.63 km</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Claro (684993783)</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>0.65 km</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>VIVO (692940499)</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>0.88 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>92733840</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Claro (684141876)</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>0.56 km</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>VIVO (617724571)</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>0.57 km</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>TIM (684665638)</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>0.57 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>67992935</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Claro (1015216029)</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>2.43 km</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>TIM (1000117410)</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>3.10 km</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>TIM (1015693005)</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>7.95 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>8942714</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>TIM (1001628621)</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>7.59 km</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>TIM (1001631088)</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>9.86 km</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>TIM (1015693021)</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>11.77 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>99922835</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>TIM (684892820)</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2.27 km</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Claro (700009752)</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>2.42 km</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>VIVO (684383365)</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>2.44 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>46563539</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>TIM (1002409982)</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>7.28 km</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>TIM (1003760950)</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>11.26 km</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>VIVO (1012302811)</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>16.91 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>107919168</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Claro (686222245)</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>5.48 km</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>VIVO (686810759)</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>5.49 km</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>TIM (684838044)</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>5.52 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>79184375</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Claro (692878190)</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>20.32 km</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>TIM (1008640490)</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>21.23 km</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>VIVO (1011734572)</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>21.23 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>112644317</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>TIM (1002380097)</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>3.77 km</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>TIM (1015808007)</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>5.13 km</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>VIVO (688118070)</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>5.22 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>57029911</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Claro (690732970)</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>4.54 km</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>VIVO (1012302846)</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>4.54 km</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>TIM (692815830)</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>4.58 km</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>10085459</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>VIVO (688117937)</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>0.99 km</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>TIM (431355177)</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>1.07 km</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Claro (683895567)</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>1.10 km</t>
+          <t>2.46 km</t>
         </is>
       </c>
     </row>
